--- a/Sombrero/sombrero.xlsx
+++ b/Sombrero/sombrero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the1h\Documents\Medium\Sombrero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9117342-A3A2-4589-B308-F448B65A5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5D02D-71BA-4311-BDBA-8BFC48241204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25400" yWindow="-1420" windowWidth="23300" windowHeight="14630" xr2:uid="{4307F6C4-7893-4505-8409-A3EA6457999D}"/>
+    <workbookView xWindow="-28910" yWindow="-1600" windowWidth="29020" windowHeight="15700" xr2:uid="{4307F6C4-7893-4505-8409-A3EA6457999D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="440" name="Picture 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3FFFCA-2FEA-6D6A-A5ED-EEC22E288831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968EFF5-DDA5-2590-F2F6-F260F566EEEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -478,7 +478,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="994" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="1144" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -491,19 +491,18 @@
     <we:reference id="wa200008175" version="1.0.0.0" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
-    <we:property name="main.py" value="&quot;\&quot;\&quot;\&quot; Replicating MATLABs sombrero 3D surface. \&quot;\&quot;\&quot;\n\nimport xlwings as xw\nfrom xlwings import func, script\nimport numpy as np\nimport matplotlib.pyplot as plt\nfrom matplotlib import cm\n\ndef clean_data(start, end, num_pts):\n    # remove 0 from data\n    a = list(np.linspace(start, end, num_pts))\n    if 0 in a:\n        a.remove(0)\n    return np.array(a)\n\n@script\ndef plot_sombrero(book: xw.Book):\n    # set up data\n    x_num_pts, y_num_pts = (1001, 1001)\n    x = clean_data(-8, 8, x_num_pts)\n    y = clean_data(-8, 8, y_num_pts)\n    X, Y = np.meshgrid(x, y)\n\n    # sombrero formula\n    c = 5\n    Z = c * np.sin(np.sqrt(X**2 + Y**2)) \/ np.sqrt(X**2 + Y**2)\n\n    # set up figure\n    fig, ax = plt.subplots(subplot_kw={\&quot;projection\&quot;: \&quot;3d\&quot;})\n    fig.set_size_inches(10, 10)\n    fig.set_dpi(100)\n    fig.patch.set_facecolor(\&quot;black\&quot;)\n    ax.set_facecolor(\&quot;black\&quot;)\n\n    # plot surface\n    surf = ax.plot_surface(X, Y, Z, cmap=cm.Greens, linewidth=0, antialiased=False)\n\n    # Add a color bar which maps values to colors.\n    cbar = fig.colorbar(surf, shrink=0.5, aspect=5)\n    for ytick in cbar.ax.get_yticklabels():\n        ytick.set_color(\&quot;white\&quot;)\n    \n    # Send plot to Excel\n    sheet = book.sheets.active\n    sheet.pictures.add(fig, anchor=sheet[\&quot;B2\&quot;])\n&quot;"/>
+    <we:property name="main.py" value="&quot;\&quot;\&quot;\&quot; Replicating MATLABs sombrero 3D surface. \&quot;\&quot;\&quot;\n\nimport xlwings as xw\nfrom xlwings import func, script\nimport numpy as np\nimport matplotlib.pyplot as plt\nfrom matplotlib import cm, use\n\n@script\ndef plot_sombrero(book: xw.Book):\n    # get the figure, axes, surface\n    sombrero = plot_surf()\n\n    # set up sheet\n    sheet = book.sheets.active\n    clear_existing_picture(sheet)\n\n    # Send plot to Excel\n    sheet.pictures.add(sombrero[\&quot;figure\&quot;], anchor=sheet[\&quot;B2\&quot;])\n\n@script\ndef rotate_sombrero(book: xw.Book):\n    # get the figure, axes, surface\n    sombrero = plot_surf()\n\n    # set up sheet\n    sheet = book.sheets.active\n    clear_existing_picture(sheet)\n\n    # Send the initial surface to Excel\n    sheet.pictures.add(sombrero[\&quot;figure\&quot;], anchor=sheet[\&quot;B2\&quot;])\n\n    # send figure to automation\n    rotate_axes(sheet, sombrero[\&quot;axes\&quot;], sombrero[\&quot;figure\&quot;], 10)\n\n\ndef clear_existing_picture(sheet: xw.Sheet):\n    try:\n        sheet.pictures[0].delete()\n        # for pic in sheet.pictures:\n        #     pic.delete()\n    except Exception as e:\n        print(e)\n    \n\ndef clean_data(start, end, num_pts):\n    # remove 0 from data\n    a = list(np.linspace(start, end, num_pts))\n    if 0 in a:\n        a.remove(0)\n    return np.array(a)\n\ndef plot_surf():\n    # set up data\n    x_num_pts, y_num_pts = (1001, 1001)\n    x = clean_data(-8, 8, x_num_pts)\n    y = clean_data(-8, 8, y_num_pts)\n    X, Y = np.meshgrid(x, y)\n\n    # sombrero formula\n    c = 5\n    Z = c * np.sin(np.sqrt(X**2 + Y**2)) \/ np.sqrt(X**2 + Y**2)\n\n    # set up figure\n    fig, ax = plt.subplots(subplot_kw={\&quot;projection\&quot;: \&quot;3d\&quot;})\n    fig.set_size_inches(10, 10)\n    fig.set_dpi(100)\n    fig.patch.set_facecolor(\&quot;black\&quot;)\n    ax.set_facecolor(\&quot;black\&quot;)\n\n    # plot surface (cm.Greens or cm.viridis_r)\n    surf = ax.plot_surface(X, Y, Z, cmap=cm.viridis_r, linewidth=0, antialiased=False)\n\n    # Add a color bar which maps values to colors.\n    cbar = fig.colorbar(surf, shrink=0.5, aspect=5)\n    for ytick in cbar.ax.get_yticklabels():\n        ytick.set_color(\&quot;white\&quot;)\n    \n    return {\&quot;figure\&quot;: fig, \&quot;axes\&quot;: ax, \&quot;plot\&quot;: surf}\n\ndef rotate_axes(sheet, ax, fig, step=1):\n    # step is in degrees.\n    # WARNING: If step==1, it takes a long time to run!!!\n    # Source for the rotation loop:\n    # https:\/\/matplotlib.org\/stable\/gallery\/mplot3d\/rotate_axes3d_sgskip.html\n\n    # data validation\n    step = min(int(step) % 360, 360)\n\n    # Rotate the axes and update\n    for angle in range(0, 360 * 4 + 1, step):\n        # Normalize the angle to the range [-180, 180] for display\n        angle_norm = (angle + 180) % 360 - 180\n\n        # Cycle through a full rotation of elevation, then azimuth, roll, and all\n        elev = azim = roll = 0\n        if angle &lt;= 360:\n            elev = angle_norm\n        elif angle &lt;= 360 * 2:\n            azim = angle_norm\n        elif angle &lt;= 360 * 3:\n            roll = angle_norm\n        else:\n            elev = azim = roll = angle_norm\n\n        # Update the axis view and title\n        ax.view_init(elev, azim, roll)\n        plt.title(\n            \&quot;Elevation: %d°, Azimuth: %d°, Roll: %d°\&quot; % (elev, azim, roll),\n            color=\&quot;white\&quot;,\n        )\n        # fig.canvas.draw()  # this method uses the existing figure\n        try:\n            sheet.pictures[0].update(fig)\n        except Exception as e:\n            print(e)\n        plt.pause(0.001)\n        \n&quot;"/>
     <we:property name="pyodideVersion" value="&quot;0.27.5&quot;"/>
     <we:property name="addinVersion" value="&quot;1.0.0.0-16&quot;"/>
   </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
-      <we:customFunctionIdList>
-        <we:customFunctionIds>_xldudf_CORREL2</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_HELLO</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_STANDARD_NORMAL</we:customFunctionIds>
-      </we:customFunctionIdList>
+      <we:customFunctionIdList/>
     </a:ext>
   </we:extLst>
 </we:webextension>
@@ -513,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67E634E-303B-49BE-ABB5-B7D4C05E936D}">
   <dimension ref="L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
